--- a/ClassLibrary1/SFS_SmokeTest/TestCases_Docs/ATX_P0testcases.xlsx
+++ b/ClassLibrary1/SFS_SmokeTest/TestCases_Docs/ATX_P0testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation Framework\GitHub\AutomationSuiteCSharp_SFS\SFS_SmokeTest\TestCases_Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation Framework\new prog\ATX\wk.automation.suite.ATX\ClassLibrary1\SFS_SmokeTest\TestCases_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9272E67D-3764-40CF-BA10-6B999AF460EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FB1061-9B40-4B3C-88D0-356C0F3588AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B389FAE1-FDED-4610-8300-114D2B489EFF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="162">
   <si>
     <t>Sr no</t>
   </si>
@@ -209,9 +209,6 @@
 2. Click on ATX Blog  Link</t>
   </si>
   <si>
-    <t>Verify user is successfully redirected to ATX Blog  page and validate the URLhttps://myatx.blogspot.com/.</t>
-  </si>
-  <si>
     <t>User should be successfully redirected to https://myatx.blogspot.com/.</t>
   </si>
   <si>
@@ -504,9 +501,6 @@
     <t>TC_034</t>
   </si>
   <si>
-    <t>TC_035</t>
-  </si>
-  <si>
     <t>ATX tax article</t>
   </si>
   <si>
@@ -568,6 +562,9 @@
   </si>
   <si>
     <t>User should be successfully redirected to  https://support-demo.cch.com/sfs/ContactUs.aspx?</t>
+  </si>
+  <si>
+    <t>Verify user is successfully redirected to ATX Blog  page and validate the URL:https://myatx.blogspot.com/.</t>
   </si>
 </sst>
 </file>
@@ -1011,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A9A0EA-E752-4DB4-8070-4BB8A6A50C23}">
-  <dimension ref="A1:L163"/>
+  <dimension ref="A1:L162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="48" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="G22" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1022,7 +1019,7 @@
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.109375" customWidth="1"/>
     <col min="5" max="5" width="57.21875" customWidth="1"/>
     <col min="6" max="6" width="46.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.109375" customWidth="1"/>
@@ -1035,7 +1032,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -1056,10 +1053,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>7</v>
@@ -1073,12 +1070,12 @@
     </row>
     <row r="2" spans="1:12" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="7" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="8">
         <v>1</v>
@@ -1102,7 +1099,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>30</v>
@@ -1114,7 +1111,7 @@
     </row>
     <row r="4" spans="1:12" s="7" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="8">
         <v>2</v>
@@ -1144,7 +1141,7 @@
     </row>
     <row r="5" spans="1:12" s="7" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="8">
         <v>3</v>
@@ -1174,12 +1171,12 @@
     </row>
     <row r="6" spans="1:12" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="8">
         <v>4</v>
@@ -1188,7 +1185,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>22</v>
@@ -1197,13 +1194,13 @@
         <v>20</v>
       </c>
       <c r="G7" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>144</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>30</v>
@@ -1215,7 +1212,7 @@
     </row>
     <row r="8" spans="1:12" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" s="8">
         <v>5</v>
@@ -1237,7 +1234,7 @@
         <v>36</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>30</v>
@@ -1249,29 +1246,29 @@
     </row>
     <row r="9" spans="1:12" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>30</v>
@@ -1283,12 +1280,12 @@
     </row>
     <row r="10" spans="1:12" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="8">
         <v>6</v>
@@ -1297,7 +1294,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>22</v>
@@ -1307,10 +1304,10 @@
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>30</v>
@@ -1322,7 +1319,7 @@
     </row>
     <row r="12" spans="1:12" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" s="8">
         <v>7</v>
@@ -1344,7 +1341,7 @@
         <v>28</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>30</v>
@@ -1356,7 +1353,7 @@
     </row>
     <row r="13" spans="1:12" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" s="8">
         <v>8</v>
@@ -1378,7 +1375,7 @@
         <v>38</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>30</v>
@@ -1390,12 +1387,12 @@
     </row>
     <row r="14" spans="1:12" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B15" s="8">
         <v>9</v>
@@ -1404,7 +1401,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>22</v>
@@ -1414,10 +1411,10 @@
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>30</v>
@@ -1429,7 +1426,7 @@
     </row>
     <row r="16" spans="1:12" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" s="8">
         <v>10</v>
@@ -1451,7 +1448,7 @@
         <v>34</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>30</v>
@@ -1463,12 +1460,12 @@
     </row>
     <row r="17" spans="1:12" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" s="8">
         <v>11</v>
@@ -1477,7 +1474,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>22</v>
@@ -1490,7 +1487,7 @@
         <v>40</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>30</v>
@@ -1502,7 +1499,7 @@
     </row>
     <row r="19" spans="1:12" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19" s="8">
         <v>12</v>
@@ -1511,7 +1508,7 @@
         <v>19</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>22</v>
@@ -1521,10 +1518,10 @@
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>30</v>
@@ -1536,7 +1533,7 @@
     </row>
     <row r="20" spans="1:12" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B20" s="8">
         <v>13</v>
@@ -1558,7 +1555,7 @@
         <v>44</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>30</v>
@@ -1570,12 +1567,12 @@
     </row>
     <row r="21" spans="1:12" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22" s="8">
         <v>14</v>
@@ -1596,14 +1593,20 @@
       <c r="H22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="I22" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="L22" s="8"/>
     </row>
     <row r="23" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23" s="8">
         <v>15</v>
@@ -1612,7 +1615,7 @@
         <v>19</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>22</v>
@@ -1622,16 +1625,22 @@
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="L23" s="8"/>
     </row>
     <row r="24" spans="1:12" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B24" s="8">
         <v>16</v>
@@ -1640,26 +1649,32 @@
         <v>19</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:12" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B25" s="8">
         <v>17</v>
@@ -1668,26 +1683,32 @@
         <v>19</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B26" s="8">
         <v>18</v>
@@ -1696,26 +1717,32 @@
         <v>19</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
+        <v>58</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="1:12" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B27" s="8">
         <v>19</v>
@@ -1724,26 +1751,32 @@
         <v>19</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="L27" s="8"/>
     </row>
-    <row r="28" spans="1:12" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B28" s="8">
         <v>20</v>
@@ -1752,59 +1785,71 @@
         <v>19</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
+        <v>62</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="1:12" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:12" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="8">
-        <v>21</v>
-      </c>
-      <c r="C29" s="8" t="s">
+      <c r="B30" s="8">
+        <v>22</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="4" t="s">
+      <c r="D30" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-    </row>
-    <row r="30" spans="1:12" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F30" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B31" s="8">
         <v>23</v>
@@ -1825,14 +1870,20 @@
       <c r="H31" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
+      <c r="I31" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B32" s="8">
         <v>24</v>
@@ -1853,14 +1904,20 @@
       <c r="H32" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
+      <c r="I32" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="1:12" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B33" s="8">
         <v>25</v>
@@ -1881,14 +1938,20 @@
       <c r="H33" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
+      <c r="I33" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="L33" s="8"/>
     </row>
-    <row r="34" spans="1:12" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B34" s="8">
         <v>26</v>
@@ -1909,14 +1972,20 @@
       <c r="H34" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
+      <c r="I34" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="L34" s="8"/>
     </row>
-    <row r="35" spans="1:12" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B35" s="8">
         <v>27</v>
@@ -1937,14 +2006,20 @@
       <c r="H35" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
+      <c r="I35" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="L35" s="8"/>
     </row>
-    <row r="36" spans="1:12" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B36" s="8">
         <v>28</v>
@@ -1965,14 +2040,20 @@
       <c r="H36" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
+      <c r="I36" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="L36" s="8"/>
     </row>
     <row r="37" spans="1:12" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B37" s="8">
         <v>29</v>
@@ -1993,47 +2074,53 @@
       <c r="H37" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
+      <c r="I37" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="L37" s="8"/>
     </row>
-    <row r="38" spans="1:12" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B38" s="8">
+    <row r="38" spans="1:12" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" s="8">
         <v>30</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" s="4" t="s">
+      <c r="D39" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-    </row>
-    <row r="39" spans="1:12" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>156</v>
-      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
     </row>
     <row r="40" spans="1:12" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B40" s="8">
         <v>31</v>
@@ -2052,7 +2139,7 @@
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
@@ -2061,7 +2148,7 @@
     </row>
     <row r="41" spans="1:12" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B41" s="8">
         <v>32</v>
@@ -2087,9 +2174,9 @@
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
     </row>
-    <row r="42" spans="1:12" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B42" s="8">
         <v>33</v>
@@ -2117,7 +2204,7 @@
     </row>
     <row r="43" spans="1:12" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B43" s="8">
         <v>34</v>
@@ -2136,40 +2223,24 @@
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
     </row>
-    <row r="44" spans="1:12" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B44" s="8">
-        <v>35</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G44" s="8"/>
-      <c r="H44" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B45" s="3"/>
@@ -2270,11 +2341,11 @@
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="5"/>
+      <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
@@ -3587,28 +3658,16 @@
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
     </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
-      <c r="I163" s="3"/>
-      <c r="J163" s="3"/>
-      <c r="K163" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A39:XFD39"/>
+    <mergeCell ref="A38:XFD38"/>
     <mergeCell ref="A21:XFD21"/>
     <mergeCell ref="A2:XFD2"/>
     <mergeCell ref="A6:XFD6"/>
     <mergeCell ref="A10:XFD10"/>
     <mergeCell ref="A14:XFD14"/>
     <mergeCell ref="A17:XFD17"/>
-    <mergeCell ref="A30:XFD30"/>
+    <mergeCell ref="A29:XFD29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
